--- a/Assets/PluginPackages/BakingSheetImpl/RawData/Enemy.xlsx
+++ b/Assets/PluginPackages/BakingSheetImpl/RawData/Enemy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefend/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefense/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB4F322-CF64-024F-A5D6-1377472DF2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D93C8AA-AC2C-B74A-A7F1-22D3E532683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33100" yWindow="580" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
@@ -601,7 +601,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="2">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="I4" s="2">
         <v>20</v>
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="2">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="I5" s="2">
         <v>30</v>
